--- a/www/DASSApp-dataTemplate-borderline.xlsx
+++ b/www/DASSApp-dataTemplate-borderline.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\63562\repos\dass\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3B34E2-C4A1-4169-BBBB-222CC437F94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9446AF-3022-47CA-9C8F-9DBF004976C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19300" yWindow="530" windowWidth="22010" windowHeight="13790" xr2:uid="{0617D515-71DE-4729-BC99-38436F4A35B6}"/>
+    <workbookView xWindow="3540" yWindow="2775" windowWidth="21600" windowHeight="9105" activeTab="7" xr2:uid="{0617D515-71DE-4729-BC99-38436F4A35B6}"/>
   </bookViews>
   <sheets>
-    <sheet name="DPRA" sheetId="4" r:id="rId1"/>
-    <sheet name="KeratinoSens" sheetId="5" r:id="rId2"/>
-    <sheet name="h-CLAT" sheetId="6" r:id="rId3"/>
-    <sheet name="ADRA" sheetId="1" r:id="rId4"/>
-    <sheet name="LuSens" sheetId="2" r:id="rId5"/>
-    <sheet name="GARDskin" sheetId="7" r:id="rId6"/>
+    <sheet name="ADRA" sheetId="1" r:id="rId1"/>
+    <sheet name="DPRA" sheetId="4" r:id="rId2"/>
+    <sheet name="KeratinoSens" sheetId="5" r:id="rId3"/>
+    <sheet name="LuSens" sheetId="2" r:id="rId4"/>
+    <sheet name="GARDskin" sheetId="7" r:id="rId5"/>
+    <sheet name="h-CLAT" sheetId="6" r:id="rId6"/>
     <sheet name="IL-8" sheetId="3" r:id="rId7"/>
     <sheet name="U-SENS" sheetId="8" r:id="rId8"/>
   </sheets>
@@ -160,8 +160,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -195,13 +203,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,10 +544,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D69FE8C-F611-4B5F-93A3-DC8AFBCC6FB9}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="C2">
+        <v>18.48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6.18</v>
+      </c>
+      <c r="C3">
+        <v>13.41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C4">
+        <v>4.04</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3.35</v>
+      </c>
+      <c r="C5">
+        <v>1.05</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5.34</v>
+      </c>
+      <c r="C6">
+        <v>4.16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4.91</v>
+      </c>
+      <c r="C7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>9.84</v>
+      </c>
+      <c r="C8">
+        <v>-5.68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>0.85</v>
+      </c>
+      <c r="C9">
+        <v>0.82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>0.21</v>
+      </c>
+      <c r="C10">
+        <v>0.33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4.46</v>
+      </c>
+      <c r="C11">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5.33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>14.02</v>
+      </c>
+      <c r="C13">
+        <v>24.66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6684E67D-7AA1-4538-A2A3-EF9672B21EFF}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -728,7 +944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24090E4F-74E7-4D3E-91CA-D83279845468}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -789,7 +1005,1650 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79F65B0-277A-40B7-B189-564EB2F858CD}">
+  <dimension ref="A1:G73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>1.0443606999999999</v>
+      </c>
+      <c r="E2">
+        <v>73.773120000000006</v>
+      </c>
+      <c r="F2">
+        <v>0.49252406999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>0.80694319999999997</v>
+      </c>
+      <c r="E3">
+        <v>94.973110000000005</v>
+      </c>
+      <c r="F3">
+        <v>0.29955299000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <v>1.8047679999999999</v>
+      </c>
+      <c r="E4">
+        <v>95.140699999999995</v>
+      </c>
+      <c r="F4">
+        <v>3.4580010000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>1.598665</v>
+      </c>
+      <c r="E5">
+        <v>42.55142</v>
+      </c>
+      <c r="F5">
+        <v>9.9130270000000006E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6">
+        <v>2.5225550000000001</v>
+      </c>
+      <c r="E6">
+        <v>80.835210000000004</v>
+      </c>
+      <c r="F6">
+        <v>1.4220470000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>0.86551549999999999</v>
+      </c>
+      <c r="E7">
+        <v>71.289779999999993</v>
+      </c>
+      <c r="F7">
+        <v>0.71227039999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>1.3930039999999999</v>
+      </c>
+      <c r="E8">
+        <v>71.910409999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.46188630000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>300</v>
+      </c>
+      <c r="D9">
+        <v>1.68648</v>
+      </c>
+      <c r="E9">
+        <v>72.075789999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.94583850000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>400</v>
+      </c>
+      <c r="D10">
+        <v>1.341518</v>
+      </c>
+      <c r="E10">
+        <v>93.364059999999995</v>
+      </c>
+      <c r="F10">
+        <v>0.40277170000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>500</v>
+      </c>
+      <c r="D11">
+        <v>0.97555890000000001</v>
+      </c>
+      <c r="E11">
+        <v>47.003079999999997</v>
+      </c>
+      <c r="F11">
+        <v>0.69182860000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>1.288532</v>
+      </c>
+      <c r="E12">
+        <v>70.108469999999997</v>
+      </c>
+      <c r="F12">
+        <v>2.6238210000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <v>1.923392</v>
+      </c>
+      <c r="E13">
+        <v>89.055909999999997</v>
+      </c>
+      <c r="F13">
+        <v>3.7604369999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>300</v>
+      </c>
+      <c r="D14">
+        <v>2.4779969999999998</v>
+      </c>
+      <c r="E14">
+        <v>84.169650000000004</v>
+      </c>
+      <c r="F14">
+        <v>1.2988120000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>400</v>
+      </c>
+      <c r="D15">
+        <v>1.6233390000000001</v>
+      </c>
+      <c r="E15">
+        <v>85.945419999999999</v>
+      </c>
+      <c r="F15">
+        <v>4.2736719999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>500</v>
+      </c>
+      <c r="D16">
+        <v>2.367753</v>
+      </c>
+      <c r="E16">
+        <v>87.233180000000004</v>
+      </c>
+      <c r="F16">
+        <v>1.4278600000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>250</v>
+      </c>
+      <c r="D17">
+        <v>1.1040958000000001</v>
+      </c>
+      <c r="E17">
+        <v>71.767780000000002</v>
+      </c>
+      <c r="F17">
+        <v>0.24215329999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>500</v>
+      </c>
+      <c r="D18">
+        <v>1.6616500000000001</v>
+      </c>
+      <c r="E18">
+        <v>92.390699999999995</v>
+      </c>
+      <c r="F18">
+        <v>0.50240030000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1000</v>
+      </c>
+      <c r="D19">
+        <v>1.445611</v>
+      </c>
+      <c r="E19">
+        <v>99.232519999999994</v>
+      </c>
+      <c r="F19">
+        <v>0.88161619999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1500</v>
+      </c>
+      <c r="D20">
+        <v>1.3082</v>
+      </c>
+      <c r="E20">
+        <v>98.922139999999999</v>
+      </c>
+      <c r="F20">
+        <v>0.1018628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2000</v>
+      </c>
+      <c r="D21">
+        <v>2.4963150000000001</v>
+      </c>
+      <c r="E21">
+        <v>90.3215</v>
+      </c>
+      <c r="F21">
+        <v>1.9680130000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>250</v>
+      </c>
+      <c r="D22">
+        <v>1.539642</v>
+      </c>
+      <c r="E22">
+        <v>89.630459999999999</v>
+      </c>
+      <c r="F22">
+        <v>3.5364970000000003E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>500</v>
+      </c>
+      <c r="D23">
+        <v>1.3477938</v>
+      </c>
+      <c r="E23">
+        <v>77.529780000000002</v>
+      </c>
+      <c r="F23">
+        <v>3.1108340000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>1000</v>
+      </c>
+      <c r="D24">
+        <v>1.7469760000000001</v>
+      </c>
+      <c r="E24">
+        <v>96.743480000000005</v>
+      </c>
+      <c r="F24">
+        <v>1.8483639999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>1500</v>
+      </c>
+      <c r="D25">
+        <v>1.316986</v>
+      </c>
+      <c r="E25">
+        <v>69.712209999999999</v>
+      </c>
+      <c r="F25">
+        <v>0.14362501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2000</v>
+      </c>
+      <c r="D26">
+        <v>1.7204647</v>
+      </c>
+      <c r="E26">
+        <v>84.256129999999999</v>
+      </c>
+      <c r="F26">
+        <v>0.19534030999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>250</v>
+      </c>
+      <c r="D27">
+        <v>1.4670909999999999</v>
+      </c>
+      <c r="E27">
+        <v>68.563509999999994</v>
+      </c>
+      <c r="F27">
+        <v>0.4230389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>500</v>
+      </c>
+      <c r="D28">
+        <v>1.2657697000000001</v>
+      </c>
+      <c r="E28">
+        <v>93.377830000000003</v>
+      </c>
+      <c r="F28">
+        <v>0.66913520000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>1000</v>
+      </c>
+      <c r="D29">
+        <v>1.9998400000000001</v>
+      </c>
+      <c r="E29">
+        <v>88.777349999999998</v>
+      </c>
+      <c r="F29">
+        <v>3.4639030000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>1500</v>
+      </c>
+      <c r="D30">
+        <v>0.89614289999999996</v>
+      </c>
+      <c r="E30">
+        <v>61.185119999999998</v>
+      </c>
+      <c r="F30">
+        <v>0.36791580000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>2000</v>
+      </c>
+      <c r="D31">
+        <v>1.9998400000000001</v>
+      </c>
+      <c r="E31">
+        <v>96.230530000000002</v>
+      </c>
+      <c r="F31">
+        <v>9.7302349999999996E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1.7628550000000001</v>
+      </c>
+      <c r="E32">
+        <v>91.347390000000004</v>
+      </c>
+      <c r="F32">
+        <v>4.2059520000000003E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1.3</v>
+      </c>
+      <c r="D33">
+        <v>2.1524529999999999</v>
+      </c>
+      <c r="E33">
+        <v>75.253129999999999</v>
+      </c>
+      <c r="F33">
+        <v>2.1095490000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>2.3389989999999998</v>
+      </c>
+      <c r="E34">
+        <v>74.400509999999997</v>
+      </c>
+      <c r="F34">
+        <v>2.6935290000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>2.3508249999999999</v>
+      </c>
+      <c r="E35">
+        <v>81.444590000000005</v>
+      </c>
+      <c r="F35">
+        <v>3.0506390000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>2.196431</v>
+      </c>
+      <c r="E36">
+        <v>83.659279999999995</v>
+      </c>
+      <c r="F36">
+        <v>2.2300470000000002E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>1.3</v>
+      </c>
+      <c r="D37">
+        <v>1.8282579999999999</v>
+      </c>
+      <c r="E37">
+        <v>44.411749999999998</v>
+      </c>
+      <c r="F37">
+        <v>8.7502900000000008E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>1.8450139999999999</v>
+      </c>
+      <c r="E38">
+        <v>60.876300000000001</v>
+      </c>
+      <c r="F38">
+        <v>4.771189E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>2.367874</v>
+      </c>
+      <c r="E39">
+        <v>99.352909999999994</v>
+      </c>
+      <c r="F39">
+        <v>1.7641982E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>2.4612780000000001</v>
+      </c>
+      <c r="E40">
+        <v>99.336209999999994</v>
+      </c>
+      <c r="F40">
+        <v>1.3476007999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>1.3</v>
+      </c>
+      <c r="D41">
+        <v>2.1112389999999999</v>
+      </c>
+      <c r="E41">
+        <v>70.095460000000003</v>
+      </c>
+      <c r="F41">
+        <v>2.6877149999999998E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>1.7810760000000001</v>
+      </c>
+      <c r="E42">
+        <v>73.169730000000001</v>
+      </c>
+      <c r="F42">
+        <v>7.9936290000000004E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>1.88967</v>
+      </c>
+      <c r="E43">
+        <v>89.482659999999996</v>
+      </c>
+      <c r="F43">
+        <v>7.9936290000000004E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>50</v>
+      </c>
+      <c r="D44">
+        <v>0.82424549999999996</v>
+      </c>
+      <c r="E44">
+        <v>75.967389999999995</v>
+      </c>
+      <c r="F44">
+        <v>0.83106020000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>150</v>
+      </c>
+      <c r="D45">
+        <v>1.1176453</v>
+      </c>
+      <c r="E45">
+        <v>84.69905</v>
+      </c>
+      <c r="F45">
+        <v>0.3854591</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>500</v>
+      </c>
+      <c r="D46">
+        <v>1.0994698999999999</v>
+      </c>
+      <c r="E46">
+        <v>67.8767</v>
+      </c>
+      <c r="F46">
+        <v>0.51512440000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1000</v>
+      </c>
+      <c r="D47">
+        <v>1.1273306000000001</v>
+      </c>
+      <c r="E47">
+        <v>95.982740000000007</v>
+      </c>
+      <c r="F47">
+        <v>0.93871360000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1500</v>
+      </c>
+      <c r="D48">
+        <v>1.0987077999999999</v>
+      </c>
+      <c r="E48">
+        <v>96.750050000000002</v>
+      </c>
+      <c r="F48">
+        <v>0.81954629999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>2500</v>
+      </c>
+      <c r="D49">
+        <v>1.2245127</v>
+      </c>
+      <c r="E49">
+        <v>72.988129999999998</v>
+      </c>
+      <c r="F49">
+        <v>0.27343329999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>50</v>
+      </c>
+      <c r="D50">
+        <v>1.1310936</v>
+      </c>
+      <c r="E50">
+        <v>44.977469999999997</v>
+      </c>
+      <c r="F50">
+        <v>0.16838620000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>150</v>
+      </c>
+      <c r="D51">
+        <v>1.3005789999999999</v>
+      </c>
+      <c r="E51">
+        <v>75.248480000000001</v>
+      </c>
+      <c r="F51">
+        <v>1.9395900000000001E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>500</v>
+      </c>
+      <c r="D52">
+        <v>1.984164</v>
+      </c>
+      <c r="E52">
+        <v>45.008969999999998</v>
+      </c>
+      <c r="F52">
+        <v>0.15063109999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>1000</v>
+      </c>
+      <c r="D53">
+        <v>1.6822459999999999</v>
+      </c>
+      <c r="E53">
+        <v>80.239500000000007</v>
+      </c>
+      <c r="F53">
+        <v>3.169831E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>1500</v>
+      </c>
+      <c r="D54">
+        <v>2.1155599999999999</v>
+      </c>
+      <c r="E54">
+        <v>57.300150000000002</v>
+      </c>
+      <c r="F54">
+        <v>0.1214623</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>2500</v>
+      </c>
+      <c r="D55">
+        <v>0.83735539999999997</v>
+      </c>
+      <c r="E55">
+        <v>51.299329999999998</v>
+      </c>
+      <c r="F55">
+        <v>3.5957160000000002E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>50</v>
+      </c>
+      <c r="D56">
+        <v>0.80597929999999995</v>
+      </c>
+      <c r="E56">
+        <v>78.209370000000007</v>
+      </c>
+      <c r="F56">
+        <v>0.6095199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>150</v>
+      </c>
+      <c r="D57">
+        <v>1.1424981000000001</v>
+      </c>
+      <c r="E57">
+        <v>88.166049999999998</v>
+      </c>
+      <c r="F57">
+        <v>0.64242140000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>500</v>
+      </c>
+      <c r="D58">
+        <v>1.4420854999999999</v>
+      </c>
+      <c r="E58">
+        <v>96.3416</v>
+      </c>
+      <c r="F58">
+        <v>1.002607E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>1000</v>
+      </c>
+      <c r="D59">
+        <v>1.8351971</v>
+      </c>
+      <c r="E59">
+        <v>78.117720000000006</v>
+      </c>
+      <c r="F59">
+        <v>3.5242000000000002E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>1250</v>
+      </c>
+      <c r="D60">
+        <v>1.43462</v>
+      </c>
+      <c r="E60">
+        <v>99.919669999999996</v>
+      </c>
+      <c r="F60">
+        <v>2.2703879999999999E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>1500</v>
+      </c>
+      <c r="D61">
+        <v>2.1975207000000001</v>
+      </c>
+      <c r="E61">
+        <v>93.402230000000003</v>
+      </c>
+      <c r="F61">
+        <v>2.7638409999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>50</v>
+      </c>
+      <c r="D62">
+        <v>1.3376650000000001</v>
+      </c>
+      <c r="E62">
+        <v>72.291259999999994</v>
+      </c>
+      <c r="F62">
+        <v>2.0554109020158601E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>150</v>
+      </c>
+      <c r="D63">
+        <v>1.464569</v>
+      </c>
+      <c r="E63">
+        <v>74.360699999999994</v>
+      </c>
+      <c r="F63">
+        <v>3.32016777992249E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>500</v>
+      </c>
+      <c r="D64">
+        <v>1.518313</v>
+      </c>
+      <c r="E64">
+        <v>78.974890000000002</v>
+      </c>
+      <c r="F64">
+        <v>4.2899252399802197E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>1000</v>
+      </c>
+      <c r="D65">
+        <v>1.460823</v>
+      </c>
+      <c r="E65">
+        <v>92.522490000000005</v>
+      </c>
+      <c r="F65">
+        <v>2.5041074911132499E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>1250</v>
+      </c>
+      <c r="D66">
+        <v>1.6570229999999999</v>
+      </c>
+      <c r="E66">
+        <v>95.071479999999994</v>
+      </c>
+      <c r="F66">
+        <v>4.7913848292082499E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>1500</v>
+      </c>
+      <c r="D67">
+        <v>1.442345</v>
+      </c>
+      <c r="E67">
+        <v>96.444320000000005</v>
+      </c>
+      <c r="F67">
+        <v>3.09468607604504E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>50</v>
+      </c>
+      <c r="D68">
+        <v>1.0614640760887399</v>
+      </c>
+      <c r="E68">
+        <v>82.120470758527503</v>
+      </c>
+      <c r="F68">
+        <v>0.80101010506506998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>150</v>
+      </c>
+      <c r="D69">
+        <v>1.0590321016544499</v>
+      </c>
+      <c r="E69">
+        <v>80.346763606648906</v>
+      </c>
+      <c r="F69">
+        <v>1.1873871975857799</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>500</v>
+      </c>
+      <c r="D70">
+        <v>0.85743835059460305</v>
+      </c>
+      <c r="E70">
+        <v>92.420391303021503</v>
+      </c>
+      <c r="F70">
+        <v>0.96768617907539001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>1000</v>
+      </c>
+      <c r="D71">
+        <v>0.59508064858615395</v>
+      </c>
+      <c r="E71">
+        <v>76.507679761853097</v>
+      </c>
+      <c r="F71">
+        <v>1.1420698914909699</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>1250</v>
+      </c>
+      <c r="D72">
+        <v>0.85814696301706095</v>
+      </c>
+      <c r="E72">
+        <v>92.260076592210694</v>
+      </c>
+      <c r="F72">
+        <v>0.88151693453546598</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>1500</v>
+      </c>
+      <c r="D73">
+        <v>1.2678707981342401</v>
+      </c>
+      <c r="E73">
+        <v>60.423270789906397</v>
+      </c>
+      <c r="F73">
+        <v>1.13590874915943</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64118CC1-06DD-4CC8-A0ED-2991949F6853}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.71070681309793104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.49862404109444503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-0.66956145631847896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-0.47141330088488798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.69628907400183404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>-0.47614814121043297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>0.63239156707422794</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>-7.7937244484201099E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>-0.817141757509671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>-0.169116748077795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>-0.93613803128246198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>-0.58755417458014603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0.18557279000524399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>0.60403358023613696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>0.45512971323914803</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>-0.34305022764019699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>-0.59666208309354296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-0.67349444534629599</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49325F4-619F-4EEB-B18F-BEEB56E04A00}">
   <dimension ref="A1:E91"/>
   <sheetViews>
@@ -2338,1858 +4197,6 @@
       </c>
       <c r="E91">
         <v>16.48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D69FE8C-F611-4B5F-93A3-DC8AFBCC6FB9}">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>9.3800000000000008</v>
-      </c>
-      <c r="C2">
-        <v>18.48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>6.18</v>
-      </c>
-      <c r="C3">
-        <v>13.41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="C4">
-        <v>4.04</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3.35</v>
-      </c>
-      <c r="C5">
-        <v>1.05</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5.34</v>
-      </c>
-      <c r="C6">
-        <v>4.16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>4.91</v>
-      </c>
-      <c r="C7">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>9.84</v>
-      </c>
-      <c r="C8">
-        <v>-5.68</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>0.85</v>
-      </c>
-      <c r="C9">
-        <v>0.82</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>0.21</v>
-      </c>
-      <c r="C10">
-        <v>0.33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>4.46</v>
-      </c>
-      <c r="C11">
-        <v>8.0399999999999991</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>5.33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>14.02</v>
-      </c>
-      <c r="C13">
-        <v>24.66</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79F65B0-277A-40B7-B189-564EB2F858CD}">
-  <dimension ref="A1:G73"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>1.0443606999999999</v>
-      </c>
-      <c r="E2">
-        <v>73.773120000000006</v>
-      </c>
-      <c r="F2">
-        <v>0.49252406999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-      <c r="D3">
-        <v>0.80694319999999997</v>
-      </c>
-      <c r="E3">
-        <v>94.973110000000005</v>
-      </c>
-      <c r="F3">
-        <v>0.29955299000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>300</v>
-      </c>
-      <c r="D4">
-        <v>1.8047679999999999</v>
-      </c>
-      <c r="E4">
-        <v>95.140699999999995</v>
-      </c>
-      <c r="F4">
-        <v>3.4580010000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>400</v>
-      </c>
-      <c r="D5">
-        <v>1.598665</v>
-      </c>
-      <c r="E5">
-        <v>42.55142</v>
-      </c>
-      <c r="F5">
-        <v>9.9130270000000006E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>500</v>
-      </c>
-      <c r="D6">
-        <v>2.5225550000000001</v>
-      </c>
-      <c r="E6">
-        <v>80.835210000000004</v>
-      </c>
-      <c r="F6">
-        <v>1.4220470000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>0.86551549999999999</v>
-      </c>
-      <c r="E7">
-        <v>71.289779999999993</v>
-      </c>
-      <c r="F7">
-        <v>0.71227039999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>200</v>
-      </c>
-      <c r="D8">
-        <v>1.3930039999999999</v>
-      </c>
-      <c r="E8">
-        <v>71.910409999999999</v>
-      </c>
-      <c r="F8">
-        <v>0.46188630000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>300</v>
-      </c>
-      <c r="D9">
-        <v>1.68648</v>
-      </c>
-      <c r="E9">
-        <v>72.075789999999998</v>
-      </c>
-      <c r="F9">
-        <v>0.94583850000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>400</v>
-      </c>
-      <c r="D10">
-        <v>1.341518</v>
-      </c>
-      <c r="E10">
-        <v>93.364059999999995</v>
-      </c>
-      <c r="F10">
-        <v>0.40277170000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>500</v>
-      </c>
-      <c r="D11">
-        <v>0.97555890000000001</v>
-      </c>
-      <c r="E11">
-        <v>47.003079999999997</v>
-      </c>
-      <c r="F11">
-        <v>0.69182860000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12">
-        <v>1.288532</v>
-      </c>
-      <c r="E12">
-        <v>70.108469999999997</v>
-      </c>
-      <c r="F12">
-        <v>2.6238210000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>200</v>
-      </c>
-      <c r="D13">
-        <v>1.923392</v>
-      </c>
-      <c r="E13">
-        <v>89.055909999999997</v>
-      </c>
-      <c r="F13">
-        <v>3.7604369999999998E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>300</v>
-      </c>
-      <c r="D14">
-        <v>2.4779969999999998</v>
-      </c>
-      <c r="E14">
-        <v>84.169650000000004</v>
-      </c>
-      <c r="F14">
-        <v>1.2988120000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>400</v>
-      </c>
-      <c r="D15">
-        <v>1.6233390000000001</v>
-      </c>
-      <c r="E15">
-        <v>85.945419999999999</v>
-      </c>
-      <c r="F15">
-        <v>4.2736719999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>500</v>
-      </c>
-      <c r="D16">
-        <v>2.367753</v>
-      </c>
-      <c r="E16">
-        <v>87.233180000000004</v>
-      </c>
-      <c r="F16">
-        <v>1.4278600000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>250</v>
-      </c>
-      <c r="D17">
-        <v>1.1040958000000001</v>
-      </c>
-      <c r="E17">
-        <v>71.767780000000002</v>
-      </c>
-      <c r="F17">
-        <v>0.24215329999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>500</v>
-      </c>
-      <c r="D18">
-        <v>1.6616500000000001</v>
-      </c>
-      <c r="E18">
-        <v>92.390699999999995</v>
-      </c>
-      <c r="F18">
-        <v>0.50240030000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1000</v>
-      </c>
-      <c r="D19">
-        <v>1.445611</v>
-      </c>
-      <c r="E19">
-        <v>99.232519999999994</v>
-      </c>
-      <c r="F19">
-        <v>0.88161619999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1500</v>
-      </c>
-      <c r="D20">
-        <v>1.3082</v>
-      </c>
-      <c r="E20">
-        <v>98.922139999999999</v>
-      </c>
-      <c r="F20">
-        <v>0.1018628</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>2000</v>
-      </c>
-      <c r="D21">
-        <v>2.4963150000000001</v>
-      </c>
-      <c r="E21">
-        <v>90.3215</v>
-      </c>
-      <c r="F21">
-        <v>1.9680130000000001E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>250</v>
-      </c>
-      <c r="D22">
-        <v>1.539642</v>
-      </c>
-      <c r="E22">
-        <v>89.630459999999999</v>
-      </c>
-      <c r="F22">
-        <v>3.5364970000000003E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>500</v>
-      </c>
-      <c r="D23">
-        <v>1.3477938</v>
-      </c>
-      <c r="E23">
-        <v>77.529780000000002</v>
-      </c>
-      <c r="F23">
-        <v>3.1108340000000002E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>1000</v>
-      </c>
-      <c r="D24">
-        <v>1.7469760000000001</v>
-      </c>
-      <c r="E24">
-        <v>96.743480000000005</v>
-      </c>
-      <c r="F24">
-        <v>1.8483639999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>1500</v>
-      </c>
-      <c r="D25">
-        <v>1.316986</v>
-      </c>
-      <c r="E25">
-        <v>69.712209999999999</v>
-      </c>
-      <c r="F25">
-        <v>0.14362501</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>2000</v>
-      </c>
-      <c r="D26">
-        <v>1.7204647</v>
-      </c>
-      <c r="E26">
-        <v>84.256129999999999</v>
-      </c>
-      <c r="F26">
-        <v>0.19534030999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>250</v>
-      </c>
-      <c r="D27">
-        <v>1.4670909999999999</v>
-      </c>
-      <c r="E27">
-        <v>68.563509999999994</v>
-      </c>
-      <c r="F27">
-        <v>0.4230389</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>500</v>
-      </c>
-      <c r="D28">
-        <v>1.2657697000000001</v>
-      </c>
-      <c r="E28">
-        <v>93.377830000000003</v>
-      </c>
-      <c r="F28">
-        <v>0.66913520000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>1000</v>
-      </c>
-      <c r="D29">
-        <v>1.9998400000000001</v>
-      </c>
-      <c r="E29">
-        <v>88.777349999999998</v>
-      </c>
-      <c r="F29">
-        <v>3.4639030000000001E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>1500</v>
-      </c>
-      <c r="D30">
-        <v>0.89614289999999996</v>
-      </c>
-      <c r="E30">
-        <v>61.185119999999998</v>
-      </c>
-      <c r="F30">
-        <v>0.36791580000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>2000</v>
-      </c>
-      <c r="D31">
-        <v>1.9998400000000001</v>
-      </c>
-      <c r="E31">
-        <v>96.230530000000002</v>
-      </c>
-      <c r="F31">
-        <v>9.7302349999999996E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1.7628550000000001</v>
-      </c>
-      <c r="E32">
-        <v>91.347390000000004</v>
-      </c>
-      <c r="F32">
-        <v>4.2059520000000003E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>1.3</v>
-      </c>
-      <c r="D33">
-        <v>2.1524529999999999</v>
-      </c>
-      <c r="E33">
-        <v>75.253129999999999</v>
-      </c>
-      <c r="F33">
-        <v>2.1095490000000001E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <v>2.3389989999999998</v>
-      </c>
-      <c r="E34">
-        <v>74.400509999999997</v>
-      </c>
-      <c r="F34">
-        <v>2.6935290000000001E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>6</v>
-      </c>
-      <c r="D35">
-        <v>2.3508249999999999</v>
-      </c>
-      <c r="E35">
-        <v>81.444590000000005</v>
-      </c>
-      <c r="F35">
-        <v>3.0506390000000001E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>2.196431</v>
-      </c>
-      <c r="E36">
-        <v>83.659279999999995</v>
-      </c>
-      <c r="F36">
-        <v>2.2300470000000002E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <v>1.3</v>
-      </c>
-      <c r="D37">
-        <v>1.8282579999999999</v>
-      </c>
-      <c r="E37">
-        <v>44.411749999999998</v>
-      </c>
-      <c r="F37">
-        <v>8.7502900000000008E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38">
-        <v>1.8450139999999999</v>
-      </c>
-      <c r="E38">
-        <v>60.876300000000001</v>
-      </c>
-      <c r="F38">
-        <v>4.771189E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39">
-        <v>6</v>
-      </c>
-      <c r="D39">
-        <v>2.367874</v>
-      </c>
-      <c r="E39">
-        <v>99.352909999999994</v>
-      </c>
-      <c r="F39">
-        <v>1.7641982E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>2.4612780000000001</v>
-      </c>
-      <c r="E40">
-        <v>99.336209999999994</v>
-      </c>
-      <c r="F40">
-        <v>1.3476007999999999E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41">
-        <v>1.3</v>
-      </c>
-      <c r="D41">
-        <v>2.1112389999999999</v>
-      </c>
-      <c r="E41">
-        <v>70.095460000000003</v>
-      </c>
-      <c r="F41">
-        <v>2.6877149999999998E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
-      <c r="D42">
-        <v>1.7810760000000001</v>
-      </c>
-      <c r="E42">
-        <v>73.169730000000001</v>
-      </c>
-      <c r="F42">
-        <v>7.9936290000000004E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43">
-        <v>6</v>
-      </c>
-      <c r="D43">
-        <v>1.88967</v>
-      </c>
-      <c r="E43">
-        <v>89.482659999999996</v>
-      </c>
-      <c r="F43">
-        <v>7.9936290000000004E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>50</v>
-      </c>
-      <c r="D44">
-        <v>0.82424549999999996</v>
-      </c>
-      <c r="E44">
-        <v>75.967389999999995</v>
-      </c>
-      <c r="F44">
-        <v>0.83106020000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>150</v>
-      </c>
-      <c r="D45">
-        <v>1.1176453</v>
-      </c>
-      <c r="E45">
-        <v>84.69905</v>
-      </c>
-      <c r="F45">
-        <v>0.3854591</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>500</v>
-      </c>
-      <c r="D46">
-        <v>1.0994698999999999</v>
-      </c>
-      <c r="E46">
-        <v>67.8767</v>
-      </c>
-      <c r="F46">
-        <v>0.51512440000000004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>1000</v>
-      </c>
-      <c r="D47">
-        <v>1.1273306000000001</v>
-      </c>
-      <c r="E47">
-        <v>95.982740000000007</v>
-      </c>
-      <c r="F47">
-        <v>0.93871360000000004</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>1500</v>
-      </c>
-      <c r="D48">
-        <v>1.0987077999999999</v>
-      </c>
-      <c r="E48">
-        <v>96.750050000000002</v>
-      </c>
-      <c r="F48">
-        <v>0.81954629999999995</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>2500</v>
-      </c>
-      <c r="D49">
-        <v>1.2245127</v>
-      </c>
-      <c r="E49">
-        <v>72.988129999999998</v>
-      </c>
-      <c r="F49">
-        <v>0.27343329999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50">
-        <v>2</v>
-      </c>
-      <c r="C50">
-        <v>50</v>
-      </c>
-      <c r="D50">
-        <v>1.1310936</v>
-      </c>
-      <c r="E50">
-        <v>44.977469999999997</v>
-      </c>
-      <c r="F50">
-        <v>0.16838620000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51">
-        <v>150</v>
-      </c>
-      <c r="D51">
-        <v>1.3005789999999999</v>
-      </c>
-      <c r="E51">
-        <v>75.248480000000001</v>
-      </c>
-      <c r="F51">
-        <v>1.9395900000000001E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52">
-        <v>500</v>
-      </c>
-      <c r="D52">
-        <v>1.984164</v>
-      </c>
-      <c r="E52">
-        <v>45.008969999999998</v>
-      </c>
-      <c r="F52">
-        <v>0.15063109999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53">
-        <v>2</v>
-      </c>
-      <c r="C53">
-        <v>1000</v>
-      </c>
-      <c r="D53">
-        <v>1.6822459999999999</v>
-      </c>
-      <c r="E53">
-        <v>80.239500000000007</v>
-      </c>
-      <c r="F53">
-        <v>3.169831E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54">
-        <v>2</v>
-      </c>
-      <c r="C54">
-        <v>1500</v>
-      </c>
-      <c r="D54">
-        <v>2.1155599999999999</v>
-      </c>
-      <c r="E54">
-        <v>57.300150000000002</v>
-      </c>
-      <c r="F54">
-        <v>0.1214623</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55">
-        <v>2</v>
-      </c>
-      <c r="C55">
-        <v>2500</v>
-      </c>
-      <c r="D55">
-        <v>0.83735539999999997</v>
-      </c>
-      <c r="E55">
-        <v>51.299329999999998</v>
-      </c>
-      <c r="F55">
-        <v>3.5957160000000002E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56">
-        <v>3</v>
-      </c>
-      <c r="C56">
-        <v>50</v>
-      </c>
-      <c r="D56">
-        <v>0.80597929999999995</v>
-      </c>
-      <c r="E56">
-        <v>78.209370000000007</v>
-      </c>
-      <c r="F56">
-        <v>0.6095199</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57">
-        <v>3</v>
-      </c>
-      <c r="C57">
-        <v>150</v>
-      </c>
-      <c r="D57">
-        <v>1.1424981000000001</v>
-      </c>
-      <c r="E57">
-        <v>88.166049999999998</v>
-      </c>
-      <c r="F57">
-        <v>0.64242140000000003</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58">
-        <v>3</v>
-      </c>
-      <c r="C58">
-        <v>500</v>
-      </c>
-      <c r="D58">
-        <v>1.4420854999999999</v>
-      </c>
-      <c r="E58">
-        <v>96.3416</v>
-      </c>
-      <c r="F58">
-        <v>1.002607E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59">
-        <v>3</v>
-      </c>
-      <c r="C59">
-        <v>1000</v>
-      </c>
-      <c r="D59">
-        <v>1.8351971</v>
-      </c>
-      <c r="E59">
-        <v>78.117720000000006</v>
-      </c>
-      <c r="F59">
-        <v>3.5242000000000002E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60">
-        <v>3</v>
-      </c>
-      <c r="C60">
-        <v>1250</v>
-      </c>
-      <c r="D60">
-        <v>1.43462</v>
-      </c>
-      <c r="E60">
-        <v>99.919669999999996</v>
-      </c>
-      <c r="F60">
-        <v>2.2703879999999999E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61">
-        <v>3</v>
-      </c>
-      <c r="C61">
-        <v>1500</v>
-      </c>
-      <c r="D61">
-        <v>2.1975207000000001</v>
-      </c>
-      <c r="E61">
-        <v>93.402230000000003</v>
-      </c>
-      <c r="F61">
-        <v>2.7638409999999999E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62">
-        <v>4</v>
-      </c>
-      <c r="C62">
-        <v>50</v>
-      </c>
-      <c r="D62">
-        <v>1.3376650000000001</v>
-      </c>
-      <c r="E62">
-        <v>72.291259999999994</v>
-      </c>
-      <c r="F62">
-        <v>2.0554109020158601E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63">
-        <v>4</v>
-      </c>
-      <c r="C63">
-        <v>150</v>
-      </c>
-      <c r="D63">
-        <v>1.464569</v>
-      </c>
-      <c r="E63">
-        <v>74.360699999999994</v>
-      </c>
-      <c r="F63">
-        <v>3.32016777992249E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64">
-        <v>4</v>
-      </c>
-      <c r="C64">
-        <v>500</v>
-      </c>
-      <c r="D64">
-        <v>1.518313</v>
-      </c>
-      <c r="E64">
-        <v>78.974890000000002</v>
-      </c>
-      <c r="F64">
-        <v>4.2899252399802197E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65">
-        <v>4</v>
-      </c>
-      <c r="C65">
-        <v>1000</v>
-      </c>
-      <c r="D65">
-        <v>1.460823</v>
-      </c>
-      <c r="E65">
-        <v>92.522490000000005</v>
-      </c>
-      <c r="F65">
-        <v>2.5041074911132499E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66">
-        <v>4</v>
-      </c>
-      <c r="C66">
-        <v>1250</v>
-      </c>
-      <c r="D66">
-        <v>1.6570229999999999</v>
-      </c>
-      <c r="E66">
-        <v>95.071479999999994</v>
-      </c>
-      <c r="F66">
-        <v>4.7913848292082499E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67">
-        <v>4</v>
-      </c>
-      <c r="C67">
-        <v>1500</v>
-      </c>
-      <c r="D67">
-        <v>1.442345</v>
-      </c>
-      <c r="E67">
-        <v>96.444320000000005</v>
-      </c>
-      <c r="F67">
-        <v>3.09468607604504E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68">
-        <v>5</v>
-      </c>
-      <c r="C68">
-        <v>50</v>
-      </c>
-      <c r="D68">
-        <v>1.0614640760887399</v>
-      </c>
-      <c r="E68">
-        <v>82.120470758527503</v>
-      </c>
-      <c r="F68">
-        <v>0.80101010506506998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69">
-        <v>5</v>
-      </c>
-      <c r="C69">
-        <v>150</v>
-      </c>
-      <c r="D69">
-        <v>1.0590321016544499</v>
-      </c>
-      <c r="E69">
-        <v>80.346763606648906</v>
-      </c>
-      <c r="F69">
-        <v>1.1873871975857799</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70">
-        <v>5</v>
-      </c>
-      <c r="C70">
-        <v>500</v>
-      </c>
-      <c r="D70">
-        <v>0.85743835059460305</v>
-      </c>
-      <c r="E70">
-        <v>92.420391303021503</v>
-      </c>
-      <c r="F70">
-        <v>0.96768617907539001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71">
-        <v>5</v>
-      </c>
-      <c r="C71">
-        <v>1000</v>
-      </c>
-      <c r="D71">
-        <v>0.59508064858615395</v>
-      </c>
-      <c r="E71">
-        <v>76.507679761853097</v>
-      </c>
-      <c r="F71">
-        <v>1.1420698914909699</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72">
-        <v>5</v>
-      </c>
-      <c r="C72">
-        <v>1250</v>
-      </c>
-      <c r="D72">
-        <v>0.85814696301706095</v>
-      </c>
-      <c r="E72">
-        <v>92.260076592210694</v>
-      </c>
-      <c r="F72">
-        <v>0.88151693453546598</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73">
-        <v>5</v>
-      </c>
-      <c r="C73">
-        <v>1500</v>
-      </c>
-      <c r="D73">
-        <v>1.2678707981342401</v>
-      </c>
-      <c r="E73">
-        <v>60.423270789906397</v>
-      </c>
-      <c r="F73">
-        <v>1.13590874915943</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64118CC1-06DD-4CC8-A0ED-2991949F6853}">
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.71070681309793104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.49862404109444503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>-0.66956145631847896</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>-0.47141330088488798</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.69628907400183404</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>-0.47614814121043297</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>0.63239156707422794</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>-7.7937244484201099E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>-0.817141757509671</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>-0.169116748077795</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>-0.93613803128246198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>-0.58755417458014603</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>0.18557279000524399</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>0.60403358023613696</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>0.45512971323914803</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>-0.34305022764019699</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>-0.59666208309354296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>-0.67349444534629599</v>
       </c>
     </row>
   </sheetData>
@@ -5869,26 +5876,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D56B4F-5043-496F-B73D-A3D669C69B93}">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5902,10 +5916,10 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>153.549122018041</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>67.2221112810075</v>
       </c>
     </row>
@@ -5919,10 +5933,10 @@
       <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>160.135776723037</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>35.187082467600703</v>
       </c>
     </row>
@@ -5936,10 +5950,10 @@
       <c r="C4">
         <v>20</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>164.84781745541801</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>63.332729618996403</v>
       </c>
     </row>
@@ -5953,10 +5967,10 @@
       <c r="C5">
         <v>50</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>157.38194662728301</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>39.213595008477597</v>
       </c>
     </row>
@@ -5970,10 +5984,10 @@
       <c r="C6">
         <v>100</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>155.561703238636</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>64.280305709689898</v>
       </c>
     </row>
@@ -5987,10 +6001,10 @@
       <c r="C7">
         <v>200</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>150.03182478668199</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>35.336226699873798</v>
       </c>
     </row>
@@ -6004,10 +6018,10 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>81.377677689306395</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>91.759290036279694</v>
       </c>
     </row>
@@ -6021,10 +6035,10 @@
       <c r="C9">
         <v>10</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>54.836594546213703</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>89.784157837275401</v>
       </c>
     </row>
@@ -6038,10 +6052,10 @@
       <c r="C10">
         <v>20</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>125.379597698338</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>42.783328061923399</v>
       </c>
     </row>
@@ -6055,10 +6069,10 @@
       <c r="C11">
         <v>50</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>203.52876963280099</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>56.198769612237797</v>
       </c>
     </row>
@@ -6072,10 +6086,10 @@
       <c r="C12">
         <v>100</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>88.6372890556231</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>66.290841791778803</v>
       </c>
     </row>
@@ -6089,10 +6103,10 @@
       <c r="C13">
         <v>200</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>55.512613966129699</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>45.895570665597901</v>
       </c>
     </row>
@@ -6106,10 +6120,10 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>94.118768313201102</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>96.790340736042694</v>
       </c>
     </row>
@@ -6123,10 +6137,10 @@
       <c r="C15">
         <v>10</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>103.903570769355</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>87.493839312810493</v>
       </c>
     </row>
@@ -6140,10 +6154,10 @@
       <c r="C16">
         <v>20</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>131.43065342283799</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>97.075185654684901</v>
       </c>
     </row>
@@ -6157,10 +6171,10 @@
       <c r="C17">
         <v>50</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>137.20445691049099</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>43.0539550725371</v>
       </c>
     </row>
@@ -6174,10 +6188,10 @@
       <c r="C18">
         <v>100</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>91.286170518258601</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>73.506203063298003</v>
       </c>
     </row>
@@ -6191,10 +6205,10 @@
       <c r="C19">
         <v>200</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>142.336796908639</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>37.6545287389308</v>
       </c>
     </row>
@@ -6208,10 +6222,10 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>134.15499961609001</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>78.309729774482506</v>
       </c>
     </row>
@@ -6225,10 +6239,10 @@
       <c r="C21">
         <v>10</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>144.82916087936599</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>80.533786343876301</v>
       </c>
     </row>
@@ -6242,10 +6256,10 @@
       <c r="C22">
         <v>20</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>137.64846740756201</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>79.701619241386695</v>
       </c>
     </row>
@@ -6259,10 +6273,10 @@
       <c r="C23">
         <v>50</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>133.771994030103</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>95.600820907857297</v>
       </c>
     </row>
@@ -6276,10 +6290,10 @@
       <c r="C24">
         <v>100</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>143.73849912988999</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>89.771541662048506</v>
       </c>
     </row>
@@ -6293,10 +6307,10 @@
       <c r="C25">
         <v>200</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>113.32211010507299</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>83.819773180875899</v>
       </c>
     </row>
@@ -6310,10 +6324,10 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>188.458189886296</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>82.343441697303206</v>
       </c>
     </row>
@@ -6327,10 +6341,10 @@
       <c r="C27">
         <v>10</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>193.313568602316</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>62.4732493795455</v>
       </c>
     </row>
@@ -6344,10 +6358,10 @@
       <c r="C28">
         <v>20</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>116.497581333388</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>85.296201684977902</v>
       </c>
     </row>
@@ -6361,10 +6375,10 @@
       <c r="C29">
         <v>50</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>87.027025985298707</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>79.620547238737302</v>
       </c>
     </row>
@@ -6378,10 +6392,10 @@
       <c r="C30">
         <v>100</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>194.50598415220199</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>74.217388394754394</v>
       </c>
     </row>
@@ -6395,10 +6409,10 @@
       <c r="C31">
         <v>200</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>129.40337161999199</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>90.167963877320304</v>
       </c>
     </row>
@@ -6412,10 +6426,10 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>86.229176709661303</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>75.169327431358397</v>
       </c>
     </row>
@@ -6429,10 +6443,10 @@
       <c r="C33">
         <v>10</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>124.95148977753701</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>98.168647154234307</v>
       </c>
     </row>
@@ -6446,10 +6460,10 @@
       <c r="C34">
         <v>20</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>90.799747116398095</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>82.6516662165523</v>
       </c>
     </row>
@@ -6463,10 +6477,10 @@
       <c r="C35">
         <v>50</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>90.149430622113897</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>98.262152550742002</v>
       </c>
     </row>
@@ -6480,10 +6494,10 @@
       <c r="C36">
         <v>100</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>130.50377651606701</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>91.777872457168996</v>
       </c>
     </row>
@@ -6497,10 +6511,10 @@
       <c r="C37">
         <v>200</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>116.000557787251</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>84.359541467856602</v>
       </c>
     </row>
@@ -6514,10 +6528,10 @@
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>91.394500802271097</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>71.641257032751994</v>
       </c>
     </row>
@@ -6531,10 +6545,10 @@
       <c r="C39">
         <v>10</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>121.85845521278701</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>78.606926873326302</v>
       </c>
     </row>
@@ -6548,10 +6562,10 @@
       <c r="C40">
         <v>20</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>138.85691796778701</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>91.928172330372007</v>
       </c>
     </row>
@@ -6565,10 +6579,10 @@
       <c r="C41">
         <v>50</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>149.33225094573601</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>48.577206498011897</v>
       </c>
     </row>
@@ -6582,10 +6596,10 @@
       <c r="C42">
         <v>100</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>127.02059618826</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>87.256771402899204</v>
       </c>
     </row>
@@ -6599,10 +6613,10 @@
       <c r="C43">
         <v>200</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>148.88958594854901</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>44.317840058356502</v>
       </c>
     </row>
@@ -6616,10 +6630,10 @@
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>145.94724860275201</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>76.943356259726002</v>
       </c>
     </row>
@@ -6633,10 +6647,10 @@
       <c r="C45">
         <v>10</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>101.04240930872</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>97.542752465233207</v>
       </c>
     </row>
@@ -6650,10 +6664,10 @@
       <c r="C46">
         <v>20</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>150.679012297653</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>76.245441862847699</v>
       </c>
     </row>
@@ -6667,10 +6681,10 @@
       <c r="C47">
         <v>50</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>82.424027873203201</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>89.645268046297105</v>
       </c>
     </row>
@@ -6684,10 +6698,10 @@
       <c r="C48">
         <v>100</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>105.62122585950399</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <v>65.406532976776404</v>
       </c>
     </row>
@@ -6701,10 +6715,10 @@
       <c r="C49">
         <v>200</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>81.231739060021894</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>76.153118005022407</v>
       </c>
     </row>
@@ -6718,10 +6732,10 @@
       <c r="C50">
         <v>1</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>180.29483394883599</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <v>76.460921356920196</v>
       </c>
     </row>
@@ -6735,10 +6749,10 @@
       <c r="C51">
         <v>10</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>169.87610248476301</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <v>91.499644820578396</v>
       </c>
     </row>
@@ -6752,10 +6766,10 @@
       <c r="C52">
         <v>20</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>170.01548800244899</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
         <v>81.954789871815606</v>
       </c>
     </row>
@@ -6769,10 +6783,10 @@
       <c r="C53">
         <v>50</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>217.07119956240101</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
         <v>41.366907407063998</v>
       </c>
     </row>
@@ -6786,10 +6800,10 @@
       <c r="C54">
         <v>100</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>211.25169883854699</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="1">
         <v>69.899314863141598</v>
       </c>
     </row>
@@ -6803,10 +6817,10 @@
       <c r="C55">
         <v>200</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>185.678332224488</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="1">
         <v>71.006806301884396</v>
       </c>
     </row>
@@ -6820,10 +6834,10 @@
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>117.816072646528</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
         <v>63.044152520597002</v>
       </c>
     </row>
@@ -6837,10 +6851,10 @@
       <c r="C57">
         <v>10</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>94.071559219155503</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="1">
         <v>80.116435433737905</v>
       </c>
     </row>
@@ -6854,10 +6868,10 @@
       <c r="C58">
         <v>20</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>124.897573727649</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
         <v>46.3098333845846</v>
       </c>
     </row>
@@ -6871,10 +6885,10 @@
       <c r="C59">
         <v>50</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>88.476424503605799</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="1">
         <v>93.073833817616105</v>
       </c>
     </row>
@@ -6888,10 +6902,10 @@
       <c r="C60">
         <v>100</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>87.855612642597407</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="1">
         <v>78.993107739370302</v>
       </c>
     </row>
@@ -6905,10 +6919,10 @@
       <c r="C61">
         <v>200</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>95.589805245399504</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="1">
         <v>79.088676574174301</v>
       </c>
     </row>
@@ -6922,10 +6936,10 @@
       <c r="C62">
         <v>1</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <v>135.340693165781</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="1">
         <v>96.933487947098897</v>
       </c>
     </row>
@@ -6939,10 +6953,10 @@
       <c r="C63">
         <v>10</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1">
         <v>109.636113558663</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="1">
         <v>75.353654457721902</v>
       </c>
     </row>
@@ -6956,10 +6970,10 @@
       <c r="C64">
         <v>20</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1">
         <v>141.87952143023699</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="1">
         <v>63.016433576121898</v>
       </c>
     </row>
@@ -6973,10 +6987,10 @@
       <c r="C65">
         <v>50</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
         <v>136.066613219446</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="1">
         <v>45.676066149026198</v>
       </c>
     </row>
@@ -6990,10 +7004,10 @@
       <c r="C66">
         <v>100</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
         <v>141.85100158955899</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="1">
         <v>47.158999042585499</v>
       </c>
     </row>
@@ -7007,10 +7021,10 @@
       <c r="C67">
         <v>200</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
         <v>133.15457492973701</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="1">
         <v>64.910128153860597</v>
       </c>
     </row>
@@ -7024,10 +7038,10 @@
       <c r="C68">
         <v>1</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="1">
         <v>141.10014593996999</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="1">
         <v>87.632684644777299</v>
       </c>
     </row>
@@ -7041,10 +7055,10 @@
       <c r="C69">
         <v>10</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="1">
         <v>144.36865816288599</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="1">
         <v>85.750358714722097</v>
       </c>
     </row>
@@ -7058,10 +7072,10 @@
       <c r="C70">
         <v>20</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="1">
         <v>135.44761093403201</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="1">
         <v>47.9400592390448</v>
       </c>
     </row>
@@ -7075,10 +7089,10 @@
       <c r="C71">
         <v>50</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="1">
         <v>142.39426111825699</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="1">
         <v>76.994549820665299</v>
       </c>
     </row>
@@ -7092,10 +7106,10 @@
       <c r="C72">
         <v>100</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1">
         <v>137.336071041878</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="1">
         <v>76.265615250449599</v>
       </c>
     </row>
@@ -7109,10 +7123,10 @@
       <c r="C73">
         <v>200</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1">
         <v>148.81759696686601</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="1">
         <v>79.194017630070405</v>
       </c>
     </row>
@@ -7126,10 +7140,10 @@
       <c r="C74">
         <v>1</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
         <v>172.892689879984</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="1">
         <v>50.1327575650066</v>
       </c>
     </row>
@@ -7143,10 +7157,10 @@
       <c r="C75">
         <v>10</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
         <v>200.23505242541401</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="1">
         <v>30.459542889148</v>
       </c>
     </row>
@@ -7160,10 +7174,10 @@
       <c r="C76">
         <v>20</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="1">
         <v>224.99673858471201</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="1">
         <v>49.804818774573498</v>
       </c>
     </row>
@@ -7177,10 +7191,10 @@
       <c r="C77">
         <v>50</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="1">
         <v>177.29460124671499</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="1">
         <v>83.664783444255605</v>
       </c>
     </row>
@@ -7194,10 +7208,10 @@
       <c r="C78">
         <v>100</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="1">
         <v>172.95845412090401</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="1">
         <v>83.191175451502204</v>
       </c>
     </row>
@@ -7211,10 +7225,10 @@
       <c r="C79">
         <v>200</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="1">
         <v>215.23308816552199</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="1">
         <v>96.6822563344613</v>
       </c>
     </row>
@@ -7228,10 +7242,10 @@
       <c r="C80">
         <v>1</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="1">
         <v>127.069644453004</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="1">
         <v>83.249570461921394</v>
       </c>
     </row>
@@ -7245,10 +7259,10 @@
       <c r="C81">
         <v>10</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="1">
         <v>106.667348328047</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="1">
         <v>75.868158102966802</v>
       </c>
     </row>
@@ -7262,10 +7276,10 @@
       <c r="C82">
         <v>20</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="1">
         <v>121.334286967758</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="1">
         <v>38.582598036155098</v>
       </c>
     </row>
@@ -7279,10 +7293,10 @@
       <c r="C83">
         <v>50</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="1">
         <v>93.042477178387301</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="1">
         <v>92.282600204925998</v>
       </c>
     </row>
@@ -7296,10 +7310,10 @@
       <c r="C84">
         <v>100</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="1">
         <v>147.91697049047801</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="1">
         <v>37.008180906996103</v>
       </c>
     </row>
@@ -7313,10 +7327,10 @@
       <c r="C85">
         <v>200</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="1">
         <v>135.36271280213299</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="1">
         <v>95.895408797077806</v>
       </c>
     </row>
@@ -7330,10 +7344,10 @@
       <c r="C86">
         <v>1</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1">
         <v>163.65358293265999</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="1">
         <v>81.933346320875003</v>
       </c>
     </row>
@@ -7347,10 +7361,10 @@
       <c r="C87">
         <v>10</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="1">
         <v>142.888946942985</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="1">
         <v>98.222951416391894</v>
       </c>
     </row>
@@ -7364,10 +7378,10 @@
       <c r="C88">
         <v>20</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
         <v>84.140973500907407</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="1">
         <v>66.9045806489885</v>
       </c>
     </row>
@@ -7381,10 +7395,10 @@
       <c r="C89">
         <v>50</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="1">
         <v>124.362401773687</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="1">
         <v>51.6370953805745</v>
       </c>
     </row>
@@ -7398,10 +7412,10 @@
       <c r="C90">
         <v>100</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1">
         <v>89.220399816986202</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="1">
         <v>50.004286700859701</v>
       </c>
     </row>
@@ -7415,10 +7429,10 @@
       <c r="C91">
         <v>200</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1">
         <v>125.453168414533</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="1">
         <v>35.285861231386697</v>
       </c>
     </row>
